--- a/VotingSystem/occur_error_data/Vote 44-LA-27-Tue Oct 10 2017 16_35_42 GMT+0900 (JST).xlsx
+++ b/VotingSystem/occur_error_data/Vote 44-LA-27-Tue Oct 10 2017 16_35_42 GMT+0900 (JST).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\learning_lab\Inclass_activity\LearningLab\VotingSystem\occur_error_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -238,62 +246,373 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -313,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43018.691468171295</v>
       </c>
@@ -321,33 +640,33 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>2.014314536E9</v>
+        <v>2014314536</v>
       </c>
       <c r="D2" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>43018.69162565972</v>
+        <v>43018.691625659718</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>2.013314435E9</v>
+        <v>2013314435</v>
       </c>
       <c r="D3" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43018.692287384256</v>
       </c>
@@ -355,33 +674,33 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>2.016311209E9</v>
+        <v>2016311209</v>
       </c>
       <c r="D4" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43018.69233644676</v>
+        <v>43018.692336446758</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>2.014314355E9</v>
+        <v>2014314355</v>
       </c>
       <c r="D5" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43018.692393634265</v>
       </c>
@@ -389,16 +708,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>2.013313216E9</v>
+        <v>2013313216</v>
       </c>
       <c r="D6" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43018.692428634255</v>
       </c>
@@ -406,33 +725,33 @@
         <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>2.01331161E9</v>
+        <v>2013311610</v>
       </c>
       <c r="D7" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43018.6924365625</v>
+        <v>43018.692436562502</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>2.012310461E9</v>
+        <v>2012310461</v>
       </c>
       <c r="D8" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43018.692446932866</v>
       </c>
@@ -440,84 +759,84 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>2.016313015E9</v>
+        <v>2016313015</v>
       </c>
       <c r="D9" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43018.69247084491</v>
+        <v>43018.692470844908</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3">
-        <v>2.016312088E9</v>
+        <v>2016312088</v>
       </c>
       <c r="D10" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>43018.69248564815</v>
+        <v>43018.692485648149</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>2.016313052E9</v>
+        <v>2016313052</v>
       </c>
       <c r="D11" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43018.69248708333</v>
+        <v>43018.692487083332</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3">
-        <v>2.013312083E9</v>
+        <v>2013312083</v>
       </c>
       <c r="D12" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>43018.6925272338</v>
+        <v>43018.692527233798</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3">
-        <v>2.014312802E9</v>
+        <v>2014312802</v>
       </c>
       <c r="D13" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43018.692540601856</v>
       </c>
@@ -525,16 +844,16 @@
         <v>18</v>
       </c>
       <c r="C14" s="3">
-        <v>2.016313661E9</v>
+        <v>2016313661</v>
       </c>
       <c r="D14" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43018.692565729165</v>
       </c>
@@ -542,16 +861,16 @@
         <v>19</v>
       </c>
       <c r="C15" s="3">
-        <v>2.014313376E9</v>
+        <v>2014313376</v>
       </c>
       <c r="D15" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43018.692568252314</v>
       </c>
@@ -559,16 +878,16 @@
         <v>20</v>
       </c>
       <c r="C16" s="3">
-        <v>2.014312826E9</v>
+        <v>2014312826</v>
       </c>
       <c r="D16" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43018.692582800926</v>
       </c>
@@ -576,16 +895,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="3">
-        <v>2.014314172E9</v>
+        <v>2014314172</v>
       </c>
       <c r="D17" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43018.692610185186</v>
       </c>
@@ -593,16 +912,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="3">
-        <v>2.01631359E9</v>
+        <v>2016313590</v>
       </c>
       <c r="D18" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43018.69261568287</v>
       </c>
@@ -610,16 +929,16 @@
         <v>23</v>
       </c>
       <c r="C19" s="3">
-        <v>2.014312898E9</v>
+        <v>2014312898</v>
       </c>
       <c r="D19" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43018.692622546296</v>
       </c>
@@ -627,33 +946,33 @@
         <v>24</v>
       </c>
       <c r="C20" s="3">
-        <v>2.013311165E9</v>
+        <v>2013311165</v>
       </c>
       <c r="D20" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43018.69263476852</v>
+        <v>43018.692634768522</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="3">
-        <v>2.016311713E9</v>
+        <v>2016311713</v>
       </c>
       <c r="D21" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43018.69264238426</v>
       </c>
@@ -661,16 +980,16 @@
         <v>26</v>
       </c>
       <c r="C22" s="3">
-        <v>2.013311143E9</v>
+        <v>2013311143</v>
       </c>
       <c r="D22" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43018.692644062496</v>
       </c>
@@ -678,16 +997,16 @@
         <v>27</v>
       </c>
       <c r="C23" s="3">
-        <v>2.0113108E9</v>
+        <v>2011310800</v>
       </c>
       <c r="D23" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E23" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43018.692670000004</v>
       </c>
@@ -695,16 +1014,16 @@
         <v>28</v>
       </c>
       <c r="C24" s="3">
-        <v>2.01431018E9</v>
+        <v>2014310180</v>
       </c>
       <c r="D24" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E24" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43018.692670289354</v>
       </c>
@@ -712,33 +1031,33 @@
         <v>29</v>
       </c>
       <c r="C25" s="3">
-        <v>2.014314254E9</v>
+        <v>2014314254</v>
       </c>
       <c r="D25" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E25" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>43018.69267942129</v>
+        <v>43018.692679421292</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="3">
-        <v>2.016312005E9</v>
+        <v>2016312005</v>
       </c>
       <c r="D26" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E26" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43018.6926809375</v>
       </c>
@@ -746,50 +1065,50 @@
         <v>31</v>
       </c>
       <c r="C27" s="3">
-        <v>2.014310332E9</v>
+        <v>2014310332</v>
       </c>
       <c r="D27" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43018.69272439815</v>
+        <v>43018.692724398148</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="3">
-        <v>2.016311184E9</v>
+        <v>2016311184</v>
       </c>
       <c r="D28" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E28" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43018.69273070602</v>
+        <v>43018.692730706018</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="3">
-        <v>2.013314626E9</v>
+        <v>2013314626</v>
       </c>
       <c r="D29" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E29" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43018.69274319445</v>
       </c>
@@ -797,33 +1116,33 @@
         <v>34</v>
       </c>
       <c r="C30" s="3">
-        <v>2.016310384E9</v>
+        <v>2016310384</v>
       </c>
       <c r="D30" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E30" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43018.69274491898</v>
+        <v>43018.692744918982</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="3">
-        <v>2.01531393E9</v>
+        <v>2015313930</v>
       </c>
       <c r="D31" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E31" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43018.692754351854</v>
       </c>
@@ -831,33 +1150,33 @@
         <v>36</v>
       </c>
       <c r="C32" s="3">
-        <v>2.016310942E9</v>
+        <v>2016310942</v>
       </c>
       <c r="D32" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E32" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43018.69275769676</v>
+        <v>43018.692757696757</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="3">
-        <v>2.016311241E9</v>
+        <v>2016311241</v>
       </c>
       <c r="D33" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E33" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43018.692767534725</v>
       </c>
@@ -865,16 +1184,16 @@
         <v>38</v>
       </c>
       <c r="C34" s="3">
-        <v>2.014313343E9</v>
+        <v>2014313343</v>
       </c>
       <c r="D34" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E34" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43018.69277115741</v>
       </c>
@@ -882,16 +1201,16 @@
         <v>39</v>
       </c>
       <c r="C35" s="3">
-        <v>2.014312359E9</v>
+        <v>2014312359</v>
       </c>
       <c r="D35" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E35" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43018.692775497686</v>
       </c>
@@ -899,16 +1218,16 @@
         <v>40</v>
       </c>
       <c r="C36" s="3">
-        <v>2.016312807E9</v>
+        <v>2016312807</v>
       </c>
       <c r="D36" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E36" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43018.69282275463</v>
       </c>
@@ -916,16 +1235,16 @@
         <v>41</v>
       </c>
       <c r="C37" s="3">
-        <v>2.014313302E9</v>
+        <v>2014313302</v>
       </c>
       <c r="D37" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E37" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43018.69283237269</v>
       </c>
@@ -933,16 +1252,16 @@
         <v>42</v>
       </c>
       <c r="C38" s="3">
-        <v>2.013311255E9</v>
+        <v>2013311255</v>
       </c>
       <c r="D38" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43018.692839317126</v>
       </c>
@@ -950,50 +1269,50 @@
         <v>43</v>
       </c>
       <c r="C39" s="3">
-        <v>2.016312888E9</v>
+        <v>2016312888</v>
       </c>
       <c r="D39" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E39" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43018.69286790509</v>
+        <v>43018.692867905091</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="3">
-        <v>2.013313241E9</v>
+        <v>2013313241</v>
       </c>
       <c r="D40" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E40" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43018.69290193287</v>
+        <v>43018.692901932867</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="3">
-        <v>2.013311738E9</v>
+        <v>2013311738</v>
       </c>
       <c r="D41" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E41" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43018.692924166666</v>
       </c>
@@ -1001,84 +1320,84 @@
         <v>46</v>
       </c>
       <c r="C42" s="3">
-        <v>2.015314005E9</v>
+        <v>2015314005</v>
       </c>
       <c r="D42" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43018.69293797454</v>
+        <v>43018.692937974542</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="3">
-        <v>2.016314323E9</v>
+        <v>2016314323</v>
       </c>
       <c r="D43" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E43" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43018.69296461805</v>
+        <v>43018.692964618051</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="3">
-        <v>2.016313513E9</v>
+        <v>2016313513</v>
       </c>
       <c r="D44" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E44" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43018.69296836806</v>
+        <v>43018.692968368057</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="3">
-        <v>2.016314286E9</v>
+        <v>2016314286</v>
       </c>
       <c r="D45" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E45" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43018.69300118055</v>
+        <v>43018.693001180553</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="3">
-        <v>2.016312183E9</v>
+        <v>2016312183</v>
       </c>
       <c r="D46" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E46" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43018.693056539356</v>
       </c>
@@ -1086,84 +1405,84 @@
         <v>51</v>
       </c>
       <c r="C47" s="3">
-        <v>2.015313645E9</v>
+        <v>2015313645</v>
       </c>
       <c r="D47" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E47" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43018.69306398148</v>
+        <v>43018.693063981482</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="3">
-        <v>2.016310954E9</v>
+        <v>2016310954</v>
       </c>
       <c r="D48" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E48" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43018.6931197338</v>
+        <v>43018.693119733798</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C49" s="3">
-        <v>2.0113108E9</v>
+        <v>2011310800</v>
       </c>
       <c r="D49" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E49" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>43018.6931378588</v>
+        <v>43018.693137858798</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="3">
-        <v>2.014310729E9</v>
+        <v>2014310729</v>
       </c>
       <c r="D50" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E50" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43018.69313856481</v>
+        <v>43018.693138564813</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="3">
-        <v>2.014314536E9</v>
+        <v>2014314536</v>
       </c>
       <c r="D51" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E51" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43018.693140613424</v>
       </c>
@@ -1171,16 +1490,16 @@
         <v>54</v>
       </c>
       <c r="C52" s="3">
-        <v>2.014313932E9</v>
+        <v>2014313932</v>
       </c>
       <c r="D52" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E52" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43018.693144537036</v>
       </c>
@@ -1188,33 +1507,33 @@
         <v>55</v>
       </c>
       <c r="C53" s="3">
-        <v>2.014313332E9</v>
+        <v>2014313332</v>
       </c>
       <c r="D53" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E53" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43018.69314516203</v>
+        <v>43018.693145162033</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="3">
-        <v>2.014311598E9</v>
+        <v>2014311598</v>
       </c>
       <c r="D54" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E54" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43018.69314771991</v>
       </c>
@@ -1222,33 +1541,33 @@
         <v>57</v>
       </c>
       <c r="C55" s="3">
-        <v>2.01431372E9</v>
+        <v>2014313720</v>
       </c>
       <c r="D55" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E55" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>43018.69315209491</v>
+        <v>43018.693152094907</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="3">
-        <v>2.014314579E9</v>
+        <v>2014314579</v>
       </c>
       <c r="D56" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E56" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43018.693163206015</v>
       </c>
@@ -1256,33 +1575,33 @@
         <v>59</v>
       </c>
       <c r="C57" s="3">
-        <v>2.016311286E9</v>
+        <v>2016311286</v>
       </c>
       <c r="D57" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E57" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>43018.69316342592</v>
+        <v>43018.693163425924</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="3">
-        <v>2.016312775E9</v>
+        <v>2016312775</v>
       </c>
       <c r="D58" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E58" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43018.693164930555</v>
       </c>
@@ -1290,16 +1609,16 @@
         <v>61</v>
       </c>
       <c r="C59" s="3">
-        <v>2.014314526E9</v>
+        <v>2014314526</v>
       </c>
       <c r="D59" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E59" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43018.69316920139</v>
       </c>
@@ -1307,50 +1626,50 @@
         <v>62</v>
       </c>
       <c r="C60" s="3">
-        <v>2.014314074E9</v>
+        <v>2014314074</v>
       </c>
       <c r="D60" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E60" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>43018.69317653935</v>
+        <v>43018.693176539353</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="3">
-        <v>2.01631183E9</v>
+        <v>2016311830</v>
       </c>
       <c r="D61" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E61" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>43018.69317780093</v>
+        <v>43018.693177800931</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="3">
-        <v>2.014312223E9</v>
+        <v>2014312223</v>
       </c>
       <c r="D62" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E62" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43018.693183587966</v>
       </c>
@@ -1358,16 +1677,16 @@
         <v>65</v>
       </c>
       <c r="C63" s="3">
-        <v>2.014313907E9</v>
+        <v>2014313907</v>
       </c>
       <c r="D63" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E63" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43018.693218009255</v>
       </c>
@@ -1375,16 +1694,16 @@
         <v>66</v>
       </c>
       <c r="C64" s="3">
-        <v>2.016314043E9</v>
+        <v>2016314043</v>
       </c>
       <c r="D64" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E64" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43018.693238692125</v>
       </c>
@@ -1392,16 +1711,16 @@
         <v>67</v>
       </c>
       <c r="C65" s="3">
-        <v>2.014311477E9</v>
+        <v>2014311477</v>
       </c>
       <c r="D65" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E65" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43018.693269525465</v>
       </c>
@@ -1409,50 +1728,50 @@
         <v>68</v>
       </c>
       <c r="C66" s="3">
-        <v>2.013311698E9</v>
+        <v>2013311698</v>
       </c>
       <c r="D66" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E66" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43018.69329733796</v>
+        <v>43018.693297337959</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="3">
-        <v>2.016310632E9</v>
+        <v>2016310632</v>
       </c>
       <c r="D67" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E67" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43018.69336255787</v>
+        <v>43018.693362557868</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C68" s="3">
-        <v>2.012313609E9</v>
+        <v>2012313609</v>
       </c>
       <c r="D68" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E68" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43018.693366770836</v>
       </c>
@@ -1460,53 +1779,53 @@
         <v>71</v>
       </c>
       <c r="C69" s="3">
-        <v>2.016310317E9</v>
+        <v>2016310317</v>
       </c>
       <c r="D69" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E69" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F69" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43018.6982904051</v>
+        <v>43018.698290405096</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C70" s="3">
-        <v>2.014313932E9</v>
+        <v>2014313932</v>
       </c>
       <c r="D70" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F70" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43018.69868769676</v>
+        <v>43018.698687696757</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="3">
-        <v>2.013311165E9</v>
+        <v>2013311165</v>
       </c>
       <c r="D71" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F71" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43018.69883069444</v>
       </c>
@@ -1514,33 +1833,33 @@
         <v>51</v>
       </c>
       <c r="C72" s="3">
-        <v>2.015313645E9</v>
+        <v>2015313645</v>
       </c>
       <c r="D72" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F72" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43018.69958015047</v>
+        <v>43018.699580150467</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="3">
-        <v>2.013311143E9</v>
+        <v>2013311143</v>
       </c>
       <c r="D73" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F73" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43018.699637349535</v>
       </c>
@@ -1548,50 +1867,50 @@
         <v>28</v>
       </c>
       <c r="C74" s="3">
-        <v>2.01431018E9</v>
+        <v>2014310180</v>
       </c>
       <c r="D74" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F74" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43018.69980325231</v>
+        <v>43018.699803252312</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="3">
-        <v>2.014312898E9</v>
+        <v>2014312898</v>
       </c>
       <c r="D75" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F75" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>43018.70008365741</v>
+        <v>43018.700083657408</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C76" s="3">
-        <v>2.014313376E9</v>
+        <v>2014313376</v>
       </c>
       <c r="D76" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F76" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43018.70051649306</v>
       </c>
@@ -1599,33 +1918,33 @@
         <v>17</v>
       </c>
       <c r="C77" s="3">
-        <v>2.014312802E9</v>
+        <v>2014312802</v>
       </c>
       <c r="D77" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F77" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43018.70062163194</v>
+        <v>43018.700621631942</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="3">
-        <v>2.016313052E9</v>
+        <v>2016313052</v>
       </c>
       <c r="D78" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F78" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43018.700625428246</v>
       </c>
@@ -1633,16 +1952,16 @@
         <v>70</v>
       </c>
       <c r="C79" s="3">
-        <v>2.012313609E9</v>
+        <v>2012313609</v>
       </c>
       <c r="D79" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F79" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43018.70096934028</v>
       </c>
@@ -1650,33 +1969,33 @@
         <v>7</v>
       </c>
       <c r="C80" s="3">
-        <v>2.013314435E9</v>
+        <v>2013314435</v>
       </c>
       <c r="D80" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F80" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>43018.70110938657</v>
+        <v>43018.701109386573</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="3">
-        <v>2.016310942E9</v>
+        <v>2016310942</v>
       </c>
       <c r="D81" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F81" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43018.701331041666</v>
       </c>
@@ -1684,33 +2003,33 @@
         <v>66</v>
       </c>
       <c r="C82" s="3">
-        <v>2.106314043E9</v>
+        <v>2106314043</v>
       </c>
       <c r="D82" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F82" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>43018.70148539352</v>
+        <v>43018.701485393518</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="3">
-        <v>2.016310384E9</v>
+        <v>2016310384</v>
       </c>
       <c r="D83" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F83" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43018.702858634264</v>
       </c>
@@ -1718,33 +2037,33 @@
         <v>32</v>
       </c>
       <c r="C84" s="3">
-        <v>2.016311184E9</v>
+        <v>2016311184</v>
       </c>
       <c r="D84" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F84" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>43018.70281524306</v>
+        <v>43018.702815243058</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C85" s="3">
-        <v>2.01531393E9</v>
+        <v>2015313930</v>
       </c>
       <c r="D85" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F85" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43018.703544351854</v>
       </c>
@@ -1752,16 +2071,16 @@
         <v>29</v>
       </c>
       <c r="C86" s="3">
-        <v>2.014314254E9</v>
+        <v>2014314254</v>
       </c>
       <c r="D86" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F86" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43018.703586006945</v>
       </c>
@@ -1769,16 +2088,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="3">
-        <v>2.016311209E9</v>
+        <v>2016311209</v>
       </c>
       <c r="D87" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F87" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43018.703690625</v>
       </c>
@@ -1786,101 +2105,101 @@
         <v>62</v>
       </c>
       <c r="C88" s="3">
-        <v>2.014314074E9</v>
+        <v>2014314074</v>
       </c>
       <c r="D88" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F88" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>43018.70398677084</v>
+        <v>43018.703986770837</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C89" s="3">
-        <v>2.016311241E9</v>
+        <v>2016311241</v>
       </c>
       <c r="D89" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F89" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>43018.70399702546</v>
+        <v>43018.703997025463</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="3">
-        <v>2.016312088E9</v>
+        <v>2016312088</v>
       </c>
       <c r="D90" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F90" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>43018.70423631945</v>
+        <v>43018.704236319449</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C91" s="3">
-        <v>2.014314526E9</v>
+        <v>2014314526</v>
       </c>
       <c r="D91" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F91" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>43018.70541430556</v>
+        <v>43018.705414305557</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C92" s="3">
-        <v>2.013314626E9</v>
+        <v>2013314626</v>
       </c>
       <c r="D92" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F92" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>43018.7054205787</v>
+        <v>43018.705420578699</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C93" s="3">
-        <v>2.016313513E9</v>
+        <v>2016313513</v>
       </c>
       <c r="D93" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F93" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43018.705427361114</v>
       </c>
@@ -1888,50 +2207,50 @@
         <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>2.014314536E9</v>
+        <v>2014314536</v>
       </c>
       <c r="D94" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F94" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>43018.70546466435</v>
+        <v>43018.705464664352</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C95" s="3">
-        <v>2.014312826E9</v>
+        <v>2014312826</v>
       </c>
       <c r="D95" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F95" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>43018.70556221065</v>
+        <v>43018.705562210649</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C96" s="3">
-        <v>2.01631183E9</v>
+        <v>2016311830</v>
       </c>
       <c r="D96" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F96" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43018.705591527774</v>
       </c>
@@ -1939,50 +2258,50 @@
         <v>18</v>
       </c>
       <c r="C97" s="3">
-        <v>2.016313661E9</v>
+        <v>2016313661</v>
       </c>
       <c r="D97" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F97" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>43018.7055953588</v>
+        <v>43018.705595358799</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="3">
-        <v>2.016314323E9</v>
+        <v>2016314323</v>
       </c>
       <c r="D98" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F98" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>43018.70561039352</v>
+        <v>43018.705610393517</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C99" s="3">
-        <v>2.015314005E9</v>
+        <v>2015314005</v>
       </c>
       <c r="D99" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F99" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43018.705619768516</v>
       </c>
@@ -1990,67 +2309,67 @@
         <v>41</v>
       </c>
       <c r="C100" s="3">
-        <v>2.014313302E9</v>
+        <v>2014313302</v>
       </c>
       <c r="D100" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F100" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>43018.7056366551</v>
+        <v>43018.705636655097</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C101" s="3">
-        <v>2.014313907E9</v>
+        <v>2014313907</v>
       </c>
       <c r="D101" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F101" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>43018.70564671296</v>
+        <v>43018.705646712959</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C102" s="3">
-        <v>2.013311698E9</v>
+        <v>2013311698</v>
       </c>
       <c r="D102" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F102" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>43018.70565178241</v>
+        <v>43018.705651782409</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="3">
-        <v>2.012310461E9</v>
+        <v>2012310461</v>
       </c>
       <c r="D103" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F103" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43018.705652476856</v>
       </c>
@@ -2058,118 +2377,118 @@
         <v>72</v>
       </c>
       <c r="C104" s="3">
-        <v>2.01331161E9</v>
+        <v>2013311610</v>
       </c>
       <c r="D104" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F104" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>43018.70565809028</v>
+        <v>43018.705658090279</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C105" s="3">
-        <v>2.014310332E9</v>
+        <v>2014310332</v>
       </c>
       <c r="D105" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F105" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>43018.70566449074</v>
+        <v>43018.705664490742</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C106" s="3">
-        <v>2.016312807E9</v>
+        <v>2016312807</v>
       </c>
       <c r="D106" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F106" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>43018.70566952546</v>
+        <v>43018.705669525458</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C107" s="3">
-        <v>2.014310729E9</v>
+        <v>2014310729</v>
       </c>
       <c r="D107" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F107" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>43018.70567556713</v>
+        <v>43018.705675567129</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C108" s="3">
-        <v>2.014312223E9</v>
+        <v>2014312223</v>
       </c>
       <c r="D108" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F108" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>43018.70571097222</v>
+        <v>43018.705710972223</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C109" s="3">
-        <v>2.016312775E9</v>
+        <v>2016312775</v>
       </c>
       <c r="D109" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F109" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>43018.70571193287</v>
+        <v>43018.705711932867</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C110" s="3">
-        <v>2.016310317E9</v>
+        <v>2016310317</v>
       </c>
       <c r="D110" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F110" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43018.705733090275</v>
       </c>
@@ -2177,16 +2496,16 @@
         <v>22</v>
       </c>
       <c r="C111" s="3">
-        <v>2.01631359E9</v>
+        <v>2016313590</v>
       </c>
       <c r="D111" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F111" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43018.705778020834</v>
       </c>
@@ -2194,33 +2513,33 @@
         <v>30</v>
       </c>
       <c r="C112" s="3">
-        <v>2.016312005E9</v>
+        <v>2016312005</v>
       </c>
       <c r="D112" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F112" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>43018.70578979167</v>
+        <v>43018.705789791667</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C113" s="3">
-        <v>2.016314323E9</v>
+        <v>2016314323</v>
       </c>
       <c r="D113" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F113" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43018.705801759264</v>
       </c>
@@ -2228,16 +2547,16 @@
         <v>44</v>
       </c>
       <c r="C114" s="3">
-        <v>2.013313241E9</v>
+        <v>2013313241</v>
       </c>
       <c r="D114" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F114" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43018.705804074074</v>
       </c>
@@ -2245,16 +2564,16 @@
         <v>67</v>
       </c>
       <c r="C115" s="3">
-        <v>2.014311477E9</v>
+        <v>2014311477</v>
       </c>
       <c r="D115" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F115" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43018.70580880787</v>
       </c>
@@ -2262,118 +2581,118 @@
         <v>49</v>
       </c>
       <c r="C116" s="3">
-        <v>2.016314286E9</v>
+        <v>2016314286</v>
       </c>
       <c r="D116" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F116" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>43018.70582238426</v>
+        <v>43018.705822384261</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C117" s="3">
-        <v>2.014310332E9</v>
+        <v>2014310332</v>
       </c>
       <c r="D117" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F117" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>43018.70582362269</v>
+        <v>43018.705823622688</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="3">
-        <v>2.013312083E9</v>
+        <v>2013312083</v>
       </c>
       <c r="D118" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F118" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>43018.70583491898</v>
+        <v>43018.705834918983</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C119" s="3">
-        <v>2.016312888E9</v>
+        <v>2016312888</v>
       </c>
       <c r="D119" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F119" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>43018.7058766088</v>
+        <v>43018.705876608801</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="3">
-        <v>2.014311598E9</v>
+        <v>2014311598</v>
       </c>
       <c r="D120" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F120" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>43018.70589063657</v>
+        <v>43018.705890636571</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C121" s="3">
-        <v>2.014314172E9</v>
+        <v>2014314172</v>
       </c>
       <c r="D121" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F121" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>43018.70592436343</v>
+        <v>43018.705924363428</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C122" s="3">
-        <v>2.01431358E9</v>
+        <v>2014313580</v>
       </c>
       <c r="D122" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F122" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43018.706006064815</v>
       </c>
@@ -2381,84 +2700,84 @@
         <v>13</v>
       </c>
       <c r="C123" s="3">
-        <v>2.016313015E9</v>
+        <v>2016313015</v>
       </c>
       <c r="D123" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F123" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>43018.70604017361</v>
+        <v>43018.706040173609</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C124" s="3">
-        <v>2.016311713E9</v>
+        <v>2016311713</v>
       </c>
       <c r="D124" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F124" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>43018.70604290509</v>
+        <v>43018.706042905091</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C125" s="3">
-        <v>2.014313332E9</v>
+        <v>2014313332</v>
       </c>
       <c r="D125" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F125" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>43018.70604351852</v>
+        <v>43018.706043518519</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C126" s="3">
-        <v>2.016312183E9</v>
+        <v>2016312183</v>
       </c>
       <c r="D126" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F126" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>43018.70604747685</v>
+        <v>43018.706047476851</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C127" s="3">
-        <v>2.016310954E9</v>
+        <v>2016310954</v>
       </c>
       <c r="D127" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F127" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43018.706120567134</v>
       </c>
@@ -2466,67 +2785,67 @@
         <v>38</v>
       </c>
       <c r="C128" s="3">
-        <v>2.014313343E9</v>
+        <v>2014313343</v>
       </c>
       <c r="D128" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F128" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>43018.70612688657</v>
+        <v>43018.706126886573</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C129" s="3">
-        <v>2.0113108E9</v>
+        <v>2011310800</v>
       </c>
       <c r="D129" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F129" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>43018.70620049769</v>
+        <v>43018.706200497691</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="3">
-        <v>2.013313216E9</v>
+        <v>2013313216</v>
       </c>
       <c r="D130" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F130" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>43018.70620503472</v>
+        <v>43018.706205034723</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C131" s="3">
-        <v>2.014314579E9</v>
+        <v>2014314579</v>
       </c>
       <c r="D131" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F131" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43018.70621877315</v>
       </c>
@@ -2534,84 +2853,85 @@
         <v>57</v>
       </c>
       <c r="C132" s="3">
-        <v>2.01431372E9</v>
+        <v>2014313720</v>
       </c>
       <c r="D132" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F132" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>43018.70622571759</v>
+        <v>43018.706225717593</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C133" s="3">
-        <v>2.013311255E9</v>
+        <v>2013311255</v>
       </c>
       <c r="D133" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F133" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>43018.70628184028</v>
+        <v>43018.706281840277</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C134" s="3">
-        <v>2.016311286E9</v>
+        <v>2016311286</v>
       </c>
       <c r="D134" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F134" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>43018.70630160879</v>
+        <v>43018.706301608792</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C135" s="3">
-        <v>2.013311738E9</v>
+        <v>2013311738</v>
       </c>
       <c r="D135" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F135" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>43018.70634841435</v>
+        <v>43018.706348414351</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C136" s="3">
-        <v>2.014314355E9</v>
+        <v>2014314355</v>
       </c>
       <c r="D136" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F136" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>